--- a/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.041152</v>
+        <v>10.101106</v>
       </c>
       <c r="E2" t="n">
-        <v>9.29668</v>
+        <v>9.993342</v>
       </c>
       <c r="F2" t="n">
-        <v>9.186685000000001</v>
+        <v>9.893630999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.744472</v>
+        <v>0.1077639999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8544669999999996</v>
+        <v>0.2074750000000005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,19 +524,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.993342</v>
+        <v>9.837403</v>
       </c>
       <c r="E3" t="n">
-        <v>9.893630999999999</v>
+        <v>10.041152</v>
       </c>
       <c r="F3" t="n">
-        <v>8.983580999999999</v>
+        <v>9.29668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09971100000000099</v>
+        <v>-0.2037490000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1.009761000000001</v>
+        <v>0.5407229999999998</v>
       </c>
     </row>
     <row r="4">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>9.614039</v>
+      </c>
+      <c r="E4" t="n">
         <v>9.733378</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.733378</v>
+        <v>-0.1193390000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>9.733378</v>
+        <v>9.614039</v>
       </c>
     </row>
     <row r="5">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>8.306566</v>
+      </c>
+      <c r="E5" t="n">
         <v>7.692854</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.954599</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.580929</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.7382549999999997</v>
+        <v>0.6137120000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1119249999999994</v>
+        <v>1.351967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE045A01017</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Ador Welding Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.370469</v>
+        <v>6.21963</v>
       </c>
       <c r="E6" t="n">
-        <v>7.284482</v>
+        <v>5.795094</v>
       </c>
       <c r="F6" t="n">
-        <v>7.362987</v>
+        <v>5.630038</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9140129999999997</v>
+        <v>0.4245360000000007</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9925180000000005</v>
+        <v>0.5895920000000006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE942C01045</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gujarat Themis Biosyn Ltd</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.308265</v>
+        <v>6.031482</v>
       </c>
       <c r="E7" t="n">
-        <v>5.558495</v>
+        <v>5.362379</v>
       </c>
       <c r="F7" t="n">
-        <v>5.894732</v>
+        <v>4.972071</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7497699999999998</v>
+        <v>0.6691029999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4135329999999993</v>
+        <v>1.059411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE045A01017</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ador Welding Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.795094</v>
+        <v>5.856657</v>
       </c>
       <c r="E8" t="n">
-        <v>5.630038</v>
+        <v>6.370469</v>
       </c>
       <c r="F8" t="n">
-        <v>5.174521</v>
+        <v>7.284482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1650559999999999</v>
+        <v>-0.5138119999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6205729999999994</v>
+        <v>-1.427824999999999</v>
       </c>
     </row>
     <row r="9">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>5.600932</v>
+      </c>
+      <c r="E9" t="n">
         <v>5.541504</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.019338</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.096678</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.5221659999999995</v>
+        <v>0.05942800000000048</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4448259999999999</v>
+        <v>0.5815939999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE942C01045</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Gujarat Themis Biosyn Ltd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.362379</v>
+        <v>5.053164</v>
       </c>
       <c r="E10" t="n">
-        <v>4.972071</v>
+        <v>6.308265</v>
       </c>
       <c r="F10" t="n">
-        <v>4.528778</v>
+        <v>5.558495</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3903080000000001</v>
+        <v>-1.255101</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8336009999999998</v>
+        <v>-0.505331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE171Z01026</t>
+          <t>INE180C01042</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bharat Dynamics Limited</t>
+          <t>Capri Global Capital Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.330176</v>
+        <v>4.176886</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.968793</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.899058</v>
       </c>
       <c r="G11" t="n">
-        <v>5.330176</v>
+        <v>0.2080929999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>5.330176</v>
+        <v>0.2778279999999995</v>
       </c>
     </row>
     <row r="12">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>3.793646</v>
+      </c>
+      <c r="E12" t="n">
         <v>3.977906</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.676665</v>
       </c>
-      <c r="F12" t="n">
-        <v>3.388341</v>
-      </c>
       <c r="G12" t="n">
-        <v>0.3012410000000001</v>
+        <v>-0.1842600000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5895649999999999</v>
+        <v>0.116981</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE180C01042</t>
+          <t>INE331A01037</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Capri Global Capital Limited</t>
+          <t>The Ramco Cements Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.968793</v>
+        <v>3.159637</v>
       </c>
       <c r="E13" t="n">
-        <v>3.899058</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.910511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06973499999999966</v>
+        <v>3.159637</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05828199999999972</v>
+        <v>3.159637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE019C01026</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>Himadri Speciality Chemical Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,19 +876,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.336715</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.810666</v>
       </c>
       <c r="G14" t="n">
-        <v>1.336715</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.336715</v>
+        <v>-2.810666</v>
       </c>
     </row>
     <row r="15">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.577651</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.573519</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.545767</v>
-      </c>
       <c r="G15" t="n">
-        <v>0.004132000000000025</v>
+        <v>-0.577651</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03188400000000002</v>
+        <v>-0.573519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE373A01013</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BASF India Ltd</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -943,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.336715</v>
       </c>
       <c r="F16" t="n">
-        <v>3.053269</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.336715</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.053269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE019C01026</t>
+          <t>INE769A01020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Himadri Speciality Chemical Limited</t>
+          <t>Aarti Industries Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.810666</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.878716</v>
+        <v>2.815853</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.810666</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.878716</v>
+        <v>-2.815853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE258G01013</t>
+          <t>INE171Z01026</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sumitomo Chemical India Limited</t>
+          <t>Bharat Dynamics Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>5.330176</v>
       </c>
       <c r="F18" t="n">
-        <v>2.079425</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-5.330176</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.079425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE0BS701011</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Premier Energies Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1042,24 +1042,24 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2633</v>
+        <v>5.782484</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.2633</v>
+        <v>-5.782484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE182A01018</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pfizer Ltd</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1074,205 +1074,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.618242</v>
+        <v>1.718982</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.618242</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>INE14LE01019</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.850031</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-0.850031</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>INE769A01020</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Aarti Industries Ltd</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.815853</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.600919</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-2.815853</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-2.600919</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>INE0CZ201020</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5.026891</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-5.026891</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>INE0BS701011</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Premier Energies Limited</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.782484</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.02133</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-5.782484</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-6.02133</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>INE034A01011</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Arvind Limited</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.82423</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-2.82423</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>quant Manufacturing Fund</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.718982</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
         <v>-1.718982</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>10.101106</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.993342</v>
       </c>
-      <c r="F2" t="n">
-        <v>9.893630999999999</v>
-      </c>
       <c r="G2" t="n">
+        <v>8.983580999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1077639999999995</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.2074750000000005</v>
+      <c r="I2" t="n">
+        <v>1.117525000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.837403</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10.041152</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.29668</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.186685000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>-0.2037490000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.5407229999999998</v>
+      <c r="I3" t="n">
+        <v>0.6507179999999995</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +570,24 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>9.614039</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.733378</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.1193390000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9.614039</v>
       </c>
     </row>
@@ -587,20 +607,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.306566</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.692854</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.954599</v>
-      </c>
       <c r="G5" t="n">
+        <v>7.580929</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6137120000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.351967</v>
+      <c r="I5" t="n">
+        <v>0.7256369999999999</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.21963</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.795094</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.630038</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.174521</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4245360000000007</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.5895920000000006</v>
+      <c r="I6" t="n">
+        <v>1.045109</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.031482</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.362379</v>
       </c>
-      <c r="F7" t="n">
-        <v>4.972071</v>
-      </c>
       <c r="G7" t="n">
+        <v>4.528778</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6691029999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.059411</v>
+      <c r="I7" t="n">
+        <v>1.502704</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.856657</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.370469</v>
       </c>
-      <c r="F8" t="n">
-        <v>7.284482</v>
-      </c>
       <c r="G8" t="n">
+        <v>7.362987</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.5138119999999997</v>
       </c>
-      <c r="H8" t="n">
-        <v>-1.427824999999999</v>
+      <c r="I8" t="n">
+        <v>-1.50633</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5.600932</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.541504</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.019338</v>
-      </c>
       <c r="G9" t="n">
+        <v>5.096678</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.05942800000000048</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.5815939999999999</v>
+      <c r="I9" t="n">
+        <v>0.5042540000000004</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>5.053164</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>6.308265</v>
       </c>
-      <c r="F10" t="n">
-        <v>5.558495</v>
-      </c>
       <c r="G10" t="n">
+        <v>5.894732</v>
+      </c>
+      <c r="H10" t="n">
         <v>-1.255101</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.505331</v>
+      <c r="I10" t="n">
+        <v>-0.8415680000000005</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.176886</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.968793</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.899058</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.910511</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2080929999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2778279999999995</v>
+      <c r="I11" t="n">
+        <v>0.2663749999999996</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>3.793646</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.977906</v>
       </c>
-      <c r="F12" t="n">
-        <v>3.676665</v>
-      </c>
       <c r="G12" t="n">
+        <v>3.388341</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.1842600000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.116981</v>
+      <c r="I12" t="n">
+        <v>0.4053049999999998</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +903,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>3.159637</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.159637</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>3.159637</v>
       </c>
+      <c r="I13" t="n">
+        <v>3.159637</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE019C01026</t>
+          <t>INE034A01011</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Himadri Speciality Chemical Limited</t>
+          <t>Arvind Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -875,20 +940,25 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.810666</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.82423</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.810666</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2.82423</v>
       </c>
     </row>
     <row r="15">
@@ -907,31 +977,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.577651</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.573519</v>
-      </c>
       <c r="G15" t="n">
+        <v>0.545767</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.577651</v>
       </c>
-      <c r="H15" t="n">
-        <v>-0.573519</v>
+      <c r="I15" t="n">
+        <v>-0.545767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE669C01036</t>
+          <t>INE373A01013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tech Mahindra Limited</t>
+          <t>BASF India Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>1.336715</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.336715</v>
+        <v>3.053269</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.053269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE769A01020</t>
+          <t>INE258G01013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aarti Industries Ltd</t>
+          <t>Sumitomo Chemical India Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.815853</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.079425</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.815853</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.079425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE171Z01026</t>
+          <t>INE182A01018</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bharat Dynamics Limited</t>
+          <t>Pfizer Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>5.330176</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.330176</v>
+        <v>2.618242</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.618242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE0BS701011</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Premier Energies Limited</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.782484</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.2633</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.782484</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.2633</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE002A01018</t>
+          <t>INE669C01036</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Tech Mahindra Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,20 +1162,247 @@
           <t>quant Manufacturing Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.718982</v>
+        <v>1.336715</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.718982</v>
+        <v>-1.336715</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE171Z01026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bharat Dynamics Limited</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.330176</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-5.330176</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INE769A01020</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aarti Industries Ltd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.600919</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2.600919</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INE14LE01019</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.850031</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.850031</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INE0CZ201020</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.026891</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-5.026891</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INE0BS701011</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Premier Energies Limited</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.02133</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-6.02133</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INE019C01026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Himadri Speciality Chemical Limited</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.878716</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2.878716</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Manufacturing_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>10.101106</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.993342</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.983580999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.1077639999999995</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>1.117525000000001</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.837403</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10.041152</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.186685000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.2037490000000002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.6507179999999995</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.614039</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.733378</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>-0.1193390000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9.614039</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.306566</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.692854</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.580929</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.6137120000000005</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.7256369999999999</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.21963</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.795094</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.174521</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.4245360000000007</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.045109</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.031482</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.362379</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.528778</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.6691029999999998</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.502704</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.856657</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.370469</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>7.362987</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.5138119999999997</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-1.50633</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.600932</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.541504</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5.096678</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.05942800000000048</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.5042540000000004</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5.053164</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>6.308265</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5.894732</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-1.255101</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.8415680000000005</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.176886</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.968793</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.910511</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.2080929999999999</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.2663749999999996</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.793646</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.977906</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>3.388341</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.1842600000000001</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.4053049999999998</v>
       </c>
     </row>
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.159637</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.159637</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>3.159637</v>
       </c>
+      <c r="J13" t="n">
+        <v>3.159637</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.82423</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>-2.82423</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Textiles &amp; Apparels</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.577651</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.545767</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-0.577651</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.545767</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.053269</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-3.053269</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.079425</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-2.079425</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.618242</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-2.618242</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.2633</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-2.2633</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.336715</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>-1.336715</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>5.330176</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-5.330176</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.600919</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-2.600919</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.850031</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-0.850031</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.026891</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-5.026891</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.02133</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>-6.02133</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Manufacturing Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Manufacturing Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>2.878716</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>-2.878716</v>
       </c>
     </row>
